--- a/Game Design/Weapons.xlsx
+++ b/Game Design/Weapons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Blunt</t>
   </si>
   <si>
-    <t>Fur Coat</t>
-  </si>
-  <si>
     <t>Body Armor</t>
   </si>
   <si>
@@ -157,9 +154,6 @@
     <t>Critical Block</t>
   </si>
   <si>
-    <t>behavior</t>
-  </si>
-  <si>
     <t>strategic map</t>
   </si>
   <si>
@@ -191,6 +185,15 @@
   </si>
   <si>
     <t>cost 3 AP</t>
+  </si>
+  <si>
+    <t>Fur Coat/Skirt</t>
+  </si>
+  <si>
+    <t>behavior (AI)</t>
+  </si>
+  <si>
+    <t>Husbandry Resistance(for animals)</t>
   </si>
 </sst>
 </file>
@@ -363,21 +366,9 @@
   </cellStyleXfs>
   <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -385,26 +376,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -420,6 +393,36 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D15:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -771,219 +774,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="7"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1003,7 +1006,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1014,197 +1017,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="7"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="8"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="8" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="7"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="8" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="7"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="7"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="11" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1230,87 +1233,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="8"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="7"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1326,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1339,468 +1342,470 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="13" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="21"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="21"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="21"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="21"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="21"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="21"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:6">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="12">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="21"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="F19" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="12">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="12">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="12">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="12">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="21"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="21"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="22">
-        <v>3</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="21"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="22">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="24"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="21"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="24"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="21"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="22">
+      <c r="E26" s="1"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="16">
         <v>0</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="24"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="9"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="22">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="24"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="22">
-        <v>10</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="24"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="22">
-        <v>6</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="24"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="26">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="24"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="25"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="31" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" s="12">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="12">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="12">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="21"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="F36" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="21"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="21"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="22">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="21"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="22">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="21"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="22">
-        <v>2</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="21"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18" t="s">
+      <c r="F37" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="5"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="22">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="9"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="18" t="s">
+      <c r="D38" s="12">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="5"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D39" s="12">
+        <v>12</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="5"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="12">
         <v>8</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="24"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="9"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="22">
-        <v>12</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="24"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="9"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="18" t="s">
+      <c r="E40" s="1"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="5"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="22">
-        <v>8</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="24"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="9"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="18" t="s">
+      <c r="D41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="5"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="9"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="26">
+      <c r="D42" s="16">
         <v>0</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="24"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="25"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Game Design/Weapons.xlsx
+++ b/Game Design/Weapons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="34400" windowHeight="23300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,11 @@
     <sheet name="Opponents" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -200,13 +205,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -429,7 +438,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -760,17 +769,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D15:D26"/>
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -861,7 +870,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15" thickBot="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
@@ -869,7 +878,7 @@
       </c>
       <c r="D12" s="8"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="14" spans="1:4" ht="15" thickBot="1"/>
     <row r="15" spans="1:4">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
@@ -980,7 +989,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+    <row r="26" spans="1:4" ht="15" thickBot="1">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -995,25 +1004,30 @@
     <mergeCell ref="A1:B9"/>
     <mergeCell ref="A15:B23"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1078,7 +1092,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15" thickBot="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="7" t="s">
@@ -1098,13 +1112,13 @@
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15" thickBot="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="14" spans="1:4" ht="15" thickBot="1"/>
     <row r="15" spans="1:4">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
@@ -1181,7 +1195,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+    <row r="23" spans="1:4" ht="15" thickBot="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="7" t="s">
@@ -1203,7 +1217,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+    <row r="26" spans="1:4" ht="15" thickBot="1">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1214,22 +1228,27 @@
     <mergeCell ref="A1:B9"/>
     <mergeCell ref="A15:B23"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1262,13 +1281,13 @@
       <c r="C4" s="1"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15" thickBot="1">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="6" spans="1:4" ht="15" thickBot="1"/>
     <row r="7" spans="1:4">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
@@ -1309,7 +1328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15" thickBot="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="7"/>
@@ -1320,25 +1339,30 @@
     <mergeCell ref="A1:B5"/>
     <mergeCell ref="A7:B11"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1469,7 +1493,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1477,7 +1501,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15" thickBot="1"/>
     <row r="16" spans="1:6">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
@@ -1630,7 +1654,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="15" thickBot="1">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1638,7 +1662,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:6" ht="15" thickBot="1"/>
     <row r="31" spans="1:6">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
@@ -1799,7 +1823,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1">
+    <row r="43" spans="1:6" ht="15" thickBot="1">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1813,6 +1837,12 @@
     <mergeCell ref="A16:B22"/>
     <mergeCell ref="A31:B37"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Game Design/Weapons.xlsx
+++ b/Game Design/Weapons.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="34400" windowHeight="23300" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -199,13 +199,109 @@
   </si>
   <si>
     <t>Husbandry Resistance(for animals)</t>
+  </si>
+  <si>
+    <t>pierce</t>
+  </si>
+  <si>
+    <t>3 wood</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>(+5%) critical hit</t>
+  </si>
+  <si>
+    <t>3 AP</t>
+  </si>
+  <si>
+    <t>Standard Attack (1)</t>
+  </si>
+  <si>
+    <t>St.Att. (1) AP Cost</t>
+  </si>
+  <si>
+    <t>Special Attack (1)</t>
+  </si>
+  <si>
+    <t>Sp.Att. (1) AP Cost</t>
+  </si>
+  <si>
+    <t>Standard Attack (2)</t>
+  </si>
+  <si>
+    <t>4 AP</t>
+  </si>
+  <si>
+    <t>St.Att. (2) AP Cost</t>
+  </si>
+  <si>
+    <t>Special Attack (2)</t>
+  </si>
+  <si>
+    <t>Sp.Att. (2) AP Cost</t>
+  </si>
+  <si>
+    <t>2 D (Ranged)</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Wood short-spear</t>
+  </si>
+  <si>
+    <t>Stone short-spear</t>
+  </si>
+  <si>
+    <t>2 AS</t>
+  </si>
+  <si>
+    <t>3 wood, 1 stone, 1 leather</t>
+  </si>
+  <si>
+    <t>4 D</t>
+  </si>
+  <si>
+    <t>3 D (Ranged)</t>
+  </si>
+  <si>
+    <t>(+10%) critical hit</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>1 hand</t>
+  </si>
+  <si>
+    <t>1 or 2 hand</t>
+  </si>
+  <si>
+    <t>2 hand bonus</t>
+  </si>
+  <si>
+    <t>(+) 1 AS</t>
+  </si>
+  <si>
+    <t>Stone Club</t>
+  </si>
+  <si>
+    <t>25% cpa for dazed1</t>
+  </si>
+  <si>
+    <t>2 wood, 2 stone, 1 leather</t>
+  </si>
+  <si>
+    <t>2 Turns</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,16 +313,30 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -369,11 +479,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -433,6 +556,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -448,13 +579,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>720857</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>25532</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -769,20 +900,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:D26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="2" t="s">
@@ -790,7 +925,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="A2" s="19"/>
       <c r="B2" s="20"/>
       <c r="C2" s="1" t="s">
@@ -798,215 +933,673 @@
       </c>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:9">
       <c r="A3" s="19"/>
       <c r="B3" s="20"/>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:9">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="20"/>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:9">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:9">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:9">
       <c r="A8" s="19"/>
       <c r="B8" s="20"/>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1"/>
-    <row r="15" spans="1:4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="2" t="s">
+      <c r="D13" s="30"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="19"/>
       <c r="B17" s="20"/>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="19"/>
       <c r="B19" s="20"/>
       <c r="C19" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="19"/>
       <c r="B20" s="20"/>
       <c r="C20" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="19"/>
       <c r="B21" s="20"/>
       <c r="C21" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="19"/>
       <c r="B22" s="20"/>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D25" s="28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D26" s="28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D27" s="28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
+      <c r="F27" s="5"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="D28" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="31" spans="1:9">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="5"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="5"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="46" spans="1:8">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="19"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="19"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="19"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="19"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="19"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="19"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="19"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="19"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="5"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B9"/>
-    <mergeCell ref="A15:B23"/>
+  <mergeCells count="5">
+    <mergeCell ref="F16:G25"/>
+    <mergeCell ref="A1:B10"/>
+    <mergeCell ref="A16:B25"/>
+    <mergeCell ref="A31:B40"/>
+    <mergeCell ref="A46:B55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1016,18 +1609,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1092,7 +1685,7 @@
       </c>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="7" t="s">
@@ -1112,13 +1705,13 @@
       <c r="C11" s="1"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1">
+    <row r="12" spans="1:4" ht="15.75" thickBot="1">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1"/>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:4">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
@@ -1195,7 +1788,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1">
       <c r="A23" s="19"/>
       <c r="B23" s="20"/>
       <c r="C23" s="7" t="s">
@@ -1217,7 +1810,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1">
+    <row r="26" spans="1:4" ht="15.75" thickBot="1">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1239,16 +1832,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1281,13 +1874,13 @@
       <c r="C4" s="1"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1">
+    <row r="5" spans="1:4" ht="15.75" thickBot="1">
       <c r="A5" s="21"/>
       <c r="B5" s="22"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1"/>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:4">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
@@ -1328,7 +1921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1">
+    <row r="11" spans="1:4" ht="15.75" thickBot="1">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="7"/>
@@ -1350,19 +1943,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1493,7 +2086,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1501,7 +2094,7 @@
       <c r="E13" s="7"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:6">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
@@ -1654,7 +2247,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1662,7 +2255,7 @@
       <c r="E28" s="7"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1"/>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="31" spans="1:6">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
@@ -1823,7 +2416,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>

--- a/Game Design/Weapons.xlsx
+++ b/Game Design/Weapons.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="29040" windowHeight="16440" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -526,6 +526,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -556,14 +564,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -903,136 +903,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="18"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:9">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="2" t="s">
         <v>0</v>
       </c>
@@ -1041,16 +1041,16 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1059,16 +1059,16 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
       <c r="H18" s="1" t="s">
         <v>82</v>
       </c>
@@ -1077,16 +1077,16 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
       <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1095,16 +1095,16 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1113,16 +1113,16 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
       <c r="H21" s="1" t="s">
         <v>2</v>
       </c>
@@ -1131,16 +1131,16 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
       <c r="H22" s="1" t="s">
         <v>4</v>
       </c>
@@ -1149,16 +1149,16 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
       <c r="H23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1167,16 +1167,16 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="1" t="s">
         <v>5</v>
       </c>
@@ -1185,81 +1185,81 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="27" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="27" t="s">
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="28" t="s">
+      <c r="I25" s="18" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="18" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="I27" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="20" t="s">
         <v>61</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1"/>
     <row r="31" spans="1:9">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="2" t="s">
         <v>0</v>
       </c>
@@ -1268,8 +1268,8 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1278,12 +1278,12 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
       <c r="C33" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -1294,8 +1294,8 @@
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
@@ -1304,8 +1304,8 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
       <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1314,8 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
       <c r="C36" s="1" t="s">
         <v>64</v>
       </c>
@@ -1325,10 +1325,10 @@
       <c r="E36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="33" t="s">
+      <c r="F36" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="34" t="s">
+      <c r="G36" s="24" t="s">
         <v>74</v>
       </c>
       <c r="H36" s="12">
@@ -1336,8 +1336,8 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
       <c r="C37" s="1" t="s">
         <v>65</v>
       </c>
@@ -1352,81 +1352,81 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
       <c r="C38" s="1" t="s">
         <v>66</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E38" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="F38" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E39" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="27" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="18" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="30" t="s">
+      <c r="D43" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="46" spans="1:8">
-      <c r="A46" s="17"/>
-      <c r="B46" s="18"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="2" t="s">
         <v>0</v>
       </c>
@@ -1435,8 +1435,8 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
       <c r="C47" s="1" t="s">
         <v>1</v>
       </c>
@@ -1445,12 +1445,12 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="23" t="s">
         <v>84</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -1461,8 +1461,8 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
       <c r="C49" s="1" t="s">
         <v>11</v>
       </c>
@@ -1471,8 +1471,8 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="1" t="s">
         <v>10</v>
       </c>
@@ -1481,8 +1481,8 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
       <c r="C51" s="1" t="s">
         <v>2</v>
       </c>
@@ -1492,10 +1492,10 @@
       <c r="E51" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="33" t="s">
+      <c r="F51" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="34" t="s">
+      <c r="G51" s="24" t="s">
         <v>74</v>
       </c>
       <c r="H51" s="12">
@@ -1503,8 +1503,8 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="28"/>
       <c r="C52" s="1" t="s">
         <v>4</v>
       </c>
@@ -1519,74 +1519,74 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="28"/>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="F53" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="32" t="s">
+      <c r="F54" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="27" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="5"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="5"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="18" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
-      <c r="C58" s="29" t="s">
+      <c r="C58" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="30"/>
+      <c r="D58" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1624,70 +1624,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
@@ -1713,8 +1713,8 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:4">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1723,8 +1723,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1733,8 +1733,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1743,8 +1743,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1753,14 +1753,14 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="1"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
@@ -1769,8 +1769,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1779,8 +1779,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1789,8 +1789,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="7" t="s">
         <v>9</v>
       </c>
@@ -1845,45 +1845,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
       <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="1"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1"/>
     <row r="7" spans="1:4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1892,8 +1892,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1902,8 +1902,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1912,8 +1912,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1922,8 +1922,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
     </row>
@@ -1946,7 +1946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
@@ -1959,8 +1959,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
@@ -1971,8 +1971,8 @@
       <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="1" t="s">
         <v>34</v>
       </c>
@@ -1983,8 +1983,8 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1995,8 +1995,8 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="11" t="s">
         <v>36</v>
       </c>
@@ -2007,8 +2007,8 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="11" t="s">
         <v>37</v>
       </c>
@@ -2017,8 +2017,8 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="11" t="s">
         <v>38</v>
       </c>
@@ -2027,8 +2027,8 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="11" t="s">
         <v>39</v>
       </c>
@@ -2096,8 +2096,8 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="16" spans="1:6">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
       <c r="C16" s="9" t="s">
         <v>18</v>
       </c>
@@ -2110,8 +2110,8 @@
       <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="25"/>
-      <c r="B17" s="26"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2124,8 +2124,8 @@
       <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="25"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
@@ -2136,8 +2136,8 @@
       <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="11" t="s">
         <v>36</v>
       </c>
@@ -2152,8 +2152,8 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="11" t="s">
         <v>37</v>
       </c>
@@ -2164,8 +2164,8 @@
       <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="11" t="s">
         <v>38</v>
       </c>
@@ -2176,8 +2176,8 @@
       <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="11" t="s">
         <v>39</v>
       </c>
@@ -2257,8 +2257,8 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1"/>
     <row r="31" spans="1:6">
-      <c r="A31" s="23"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="9" t="s">
         <v>18</v>
       </c>
@@ -2271,8 +2271,8 @@
       <c r="F31" s="13"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="25"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2285,8 +2285,8 @@
       <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="1" t="s">
         <v>35</v>
       </c>
@@ -2297,8 +2297,8 @@
       <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="25"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="11" t="s">
         <v>36</v>
       </c>
@@ -2313,8 +2313,8 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="25"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="11" t="s">
         <v>37</v>
       </c>
@@ -2325,8 +2325,8 @@
       <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="11" t="s">
         <v>38</v>
       </c>
@@ -2341,8 +2341,8 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="25"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="11" t="s">
         <v>39</v>
       </c>
